--- a/book/ch4-spreadsheets/res/formulas_start.xlsx
+++ b/book/ch4-spreadsheets/res/formulas_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\book\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps\book\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7EC3F9-9E73-4D83-B093-3FB3A378D1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E507A2DF-4A95-4587-AFCE-08E473B84744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="4305" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator Practice" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,35 +411,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -772,159 +774,159 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>54</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>68</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>41</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>100</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>35</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>700</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="14">
         <v>485</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>48</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="14">
         <v>40</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>1230</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>12</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="14">
         <v>24</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -955,29 +957,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>4000</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -997,14 +999,14 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <f>G9</f>
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
       <c r="F4" s="5">
@@ -1016,14 +1018,14 @@
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="e">
-        <f>B3/B4</f>
-        <v>#DIV/0!</v>
+      <c r="B5" s="9">
+        <f>B3-B4</f>
+        <v>4000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>25</v>
       </c>
       <c r="F5" s="5">
@@ -1035,7 +1037,7 @@
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>40</v>
       </c>
       <c r="F6" s="5">
@@ -1047,7 +1049,7 @@
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
       <c r="F7" s="5">
@@ -1059,7 +1061,7 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>20</v>
       </c>
       <c r="F8" s="5">
@@ -1068,11 +1070,11 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="3"/>
     </row>
   </sheetData>
@@ -1103,22 +1105,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1135,7 +1137,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43557</v>
       </c>
       <c r="B4">
@@ -1144,14 +1146,14 @@
       <c r="C4">
         <v>52</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="11"/>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>43562</v>
       </c>
       <c r="B5">
@@ -1160,14 +1162,14 @@
       <c r="C5">
         <v>49</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43563</v>
       </c>
       <c r="B6">
@@ -1176,10 +1178,10 @@
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>43570</v>
       </c>
       <c r="B7">
@@ -1188,10 +1190,10 @@
       <c r="C7">
         <v>48</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>43575</v>
       </c>
       <c r="B8">
@@ -1200,7 +1202,7 @@
       <c r="C8">
         <v>52</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1227,12 +1229,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1286,7 +1288,7 @@
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
